--- a/tests/JavaTestEpam.xlsx
+++ b/tests/JavaTestEpam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9600" windowHeight="11505"/>
+    <workbookView windowWidth="19200" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prelusive" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="685">
   <si>
     <t>£RQ</t>
   </si>
@@ -1709,6 +1709,261 @@
     <t>10 Runtime error</t>
   </si>
   <si>
+    <t>class BoxPrinter&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private T val;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public BoxPrinter(T arg) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String toString() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "[" + val + "]";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } }</t>
+  </si>
+  <si>
+    <t>public class BoxPrinterTest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BoxPrinter&lt;Integer&gt; value1 = new BoxPrinter&lt;&gt;( new Integer(10) );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(value1);</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[null]</t>
+  </si>
+  <si>
+    <t>Which of the options will make compile successfully, given the following code:</t>
+  </si>
+  <si>
+    <t>interface Employee { }                    // Line1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">interface Printable extends Employee {   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 // Line2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    String print();       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">             // Line3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  // Line4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class Programmer {        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            // Line5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    String print() { return("Programmer "); }        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            // Line6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               // Line7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class Author extends Programmer implements Printable, Employee {      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">              // Line8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    String print() { return("Author "); }   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 // Line9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">             // Line10</t>
+    </r>
+  </si>
+  <si>
+    <t>Modify code on //Line2 to: interface Printable {</t>
+  </si>
+  <si>
+    <t>Modify code on //Line8 so that it implements only the interface Printable.</t>
+  </si>
+  <si>
+    <t>Modify code on //Line3 to: public String print();</t>
+  </si>
+  <si>
+    <t>Define the accessibility of the print methods to public on //Line9.</t>
+  </si>
+  <si>
     <t>What is the result of the following code?</t>
   </si>
   <si>
@@ -1796,31 +2051,776 @@
     <t>Jumpable var5 = new Lion();</t>
   </si>
   <si>
+    <t xml:space="preserve">        String varWithSpaces = " AB CB ";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.print(":");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.print(varWith Spaces.trim());</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>:ABCB:</t>
+  </si>
+  <si>
+    <t>:AB CB:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String letters = "ABCAB";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(letters.startsWith("Ab"));</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>What will be the result of the following code?</t>
+  </si>
+  <si>
+    <t>enum Animals {</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    DOG("woof"), CAT("meow"), FISH("burble"); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Line1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    String sound; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Line2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Animals(String s) { sound = s; } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Line3</t>
+    </r>
+  </si>
+  <si>
+    <t>class TestEnum {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static Animals a;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        System.out.println(a.DOG.sound + " " + a.FISH.sound); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Line4</t>
+    </r>
+  </si>
+  <si>
+    <t>B. Multiple compile errors</t>
+  </si>
+  <si>
+    <t>A. woof burble</t>
+  </si>
+  <si>
+    <t>D. Compile error on //Line2</t>
+  </si>
+  <si>
+    <t>C. Compile error on //Line1</t>
+  </si>
+  <si>
+    <t>E. Compile error on //Line3</t>
+  </si>
+  <si>
+    <t>F. Compile error on //Line4</t>
+  </si>
+  <si>
+    <t>class Pair&lt;T1, T2&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    T1 object1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    T2 object2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pair(T1 one, T2 two) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        object1 = one;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        object2 = two;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public T1 getFirst() { return object1; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public T2 getSecond() { return object2; }</t>
+  </si>
+  <si>
+    <t>public class PairTest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pair&lt;Integer, String&gt; worldCup = new Pair&lt;Integer, String&gt;(2010, "South Africa");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("World cup " + worldCup.getFirst() + " in " + worldCup.getSecond());</t>
+  </si>
+  <si>
+    <t>World cup South Africa in 2010</t>
+  </si>
+  <si>
+    <t>World cup 2010 in South Africa</t>
+  </si>
+  <si>
+    <t>public class TestLoop {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (int i = 12; i &gt; 0; i -= 3) System.out.print(i);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("");</t>
+  </si>
+  <si>
+    <t>12963;</t>
+  </si>
+  <si>
+    <t>12;</t>
+  </si>
+  <si>
+    <t>There is no right answer;</t>
+  </si>
+  <si>
+    <t>36912;</t>
+  </si>
+  <si>
+    <t>129630;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which is correct and produce output: </t>
+  </si>
+  <si>
+    <t>System.out.println(Integer.parseInt("-123"));</t>
+  </si>
+  <si>
+    <t>System.out.println(Integer.parseInt("123_45"));</t>
+  </si>
+  <si>
+    <t>System.out.println(Integer.parseInt("12ABCD"));</t>
+  </si>
+  <si>
+    <t>System.out.println(Integer.parseInt("+123"));</t>
+  </si>
+  <si>
+    <t>System.out.println(Integer.parseInt("123"));</t>
+  </si>
+  <si>
+    <t>class JavaCourse { String courseName = "Java"; }</t>
+  </si>
+  <si>
+    <t>public class University {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        JavaCourse courses[] = { new JavaCourse(), new JavaCourse() };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        courses[0].courseName = "MegaCourse";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (JavaCourse c : courses) c = new JavaCourse();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (JavaCourse c : courses) System.out.println(c.courseName);</t>
+  </si>
+  <si>
+    <t>MegaCourse MegaCourse</t>
+  </si>
+  <si>
+    <t>Java Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MegaCourse Java </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will be the result of the following code? </t>
+  </si>
+  <si>
+    <t>class Coffee {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    enum CoffeeSize { BIG, HUGE, OVERWHELMING };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CoffeeSize size;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Coffee drink = new Coffee(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        drink.size = CoffeeSize.BIG;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(drink.size);</t>
+  </si>
+  <si>
+    <t>B. null</t>
+  </si>
+  <si>
+    <t>A. BIG</t>
+  </si>
+  <si>
+    <t>D. Runtime error</t>
+  </si>
+  <si>
+    <t>C. Compilation error</t>
+  </si>
+  <si>
+    <t>What is the result of the following code fragment:</t>
+  </si>
+  <si>
+    <t>int x = 1, y = 15;</t>
+  </si>
+  <si>
+    <t>while x &lt; 10</t>
+  </si>
+  <si>
+    <t>y--;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x++; </t>
+  </si>
+  <si>
+    <t>System.out.println(x + ", " + y);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime error </t>
+  </si>
+  <si>
+    <t>11, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilation error </t>
+  </si>
+  <si>
+    <t>10, 6</t>
+  </si>
+  <si>
+    <t>10, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which is true? </t>
+  </si>
+  <si>
+    <t>"X extends Y" is correct if X and Y are either both classes or both interfaces;</t>
+  </si>
+  <si>
+    <t>"X extends Y" is correct if and only if X is an Interface and Y is a class;</t>
+  </si>
+  <si>
+    <t>"X extends Y" is correct for all combinations of X and Y being classes and/or interfaces;</t>
+  </si>
+  <si>
+    <t>"X extends Y" is correct if and only if X is a class and Y is an Interface;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int y = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.print(y++ + " ");</t>
+  </si>
+  <si>
+    <t>} while(y &lt;= 10);</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10 11</t>
+  </si>
+  <si>
+    <t>public class Fish {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int numFish = 4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String fishType = "tuna";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String anotherFish = numFish + 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(anotherFish + " " + fishType); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(numFish + " " + 1);</t>
+  </si>
+  <si>
+    <t>5 tuna</t>
+  </si>
+  <si>
+    <t>5tuna</t>
+  </si>
+  <si>
+    <t>4 1</t>
+  </si>
+  <si>
+    <t>51tuna</t>
+  </si>
+  <si>
+    <t>Rules of interfaces?</t>
+  </si>
+  <si>
+    <t>An interface can extend multiple interfaces;</t>
+  </si>
+  <si>
+    <t>Interface methods must be static;</t>
+  </si>
+  <si>
+    <t>All interface methods (that are not declared as default or static) are implicitly public and abstract;</t>
+  </si>
+  <si>
+    <t>An interface can extend only one Interface;</t>
+  </si>
+  <si>
+    <t>Which of the following can replace line 4 to print "avaJ"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringBuilder puzzle = new StringBuilder("Java"); </t>
+  </si>
+  <si>
+    <t>// INSERT CODE HERE</t>
+  </si>
+  <si>
+    <t>System.out.println(puzzle);</t>
+  </si>
+  <si>
+    <t>puzzle.append("vaJ$").substring(0, 4);</t>
+  </si>
+  <si>
+    <t>puzzle.append("vaJ$").delete(0, 3).deleteCharAt(puzzle.length() - 1);</t>
+  </si>
+  <si>
+    <t>puzzle.reverse();</t>
+  </si>
+  <si>
+    <t>puzzle.append("vaJ$").delete(0, 3).deleteCharAt(puzzle.length());</t>
+  </si>
+  <si>
+    <t>What is the relationship?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void job() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Class A");</t>
+  </si>
+  <si>
+    <t>class B extends A {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Class B"); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAS-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVE-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAS-A </t>
+  </si>
+  <si>
+    <t>IS-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String val;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public BoxPrinter(String arg) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BoxPrinter&lt;Integer&gt; value1 = new BoxPrinter&lt;Integer&gt;( new Integer(10) );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BoxPrinter&lt;String&gt; value2 = new BoxPrinter&lt;String&gt;("Hello world");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(value2);</t>
+  </si>
+  <si>
+    <t>[null] [Hello world]</t>
+  </si>
+  <si>
+    <t>[10] [Hello world]</t>
+  </si>
+  <si>
+    <t>What will be the output of the following code in the end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int marks = 8;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int total = 10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(total &lt; marks &amp;&amp; ++marks &gt; 5);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(marks);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(total == 10 || ++marks &gt; 10);</t>
+  </si>
+  <si>
+    <t>What two changes, made independently, will enable the code to compile?</t>
+  </si>
+  <si>
+    <t>public abstract class Account {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    abstract void deposit(double amt);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public abstract Boolean withdraw(double amt);</t>
+  </si>
+  <si>
+    <t>public class CheckingAccount extends Account { }</t>
+  </si>
+  <si>
+    <t>Change the signature of Account to: public class Account;</t>
+  </si>
+  <si>
+    <t>Change signature of CheckingAccount to: CheckingAccount implements Account;</t>
+  </si>
+  <si>
+    <t>Implement methods for deposit and withdraw in CheckingAccount;</t>
+  </si>
+  <si>
+    <t>Implement private methods for deposit and withdraw in CheckingAccount;</t>
+  </si>
+  <si>
+    <t>Make Account an interface;</t>
+  </si>
+  <si>
+    <t>Change the signature of CheckingAccount to: public abstract CheckingAccount;</t>
+  </si>
+  <si>
+    <t>Select the correct option to declare a class Emp, given the following definitions.</t>
+  </si>
+  <si>
+    <t>class Person { }</t>
+  </si>
+  <si>
+    <t>interface Movable { }</t>
+  </si>
+  <si>
+    <t>class Emp implements Person extends Movable { }</t>
+  </si>
+  <si>
+    <t>class Emp implements Person, Movable { }</t>
+  </si>
+  <si>
+    <t>class Emp extends Person, Movable { }</t>
+  </si>
+  <si>
+    <t>class Emp extends Person implements Movable { }</t>
+  </si>
+  <si>
+    <t>class TestOperation {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(4 | 3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Integer i1 = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Integer i2 = new Integer(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(i1 == i2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(" " + i1.equals(i2) );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void a() { System.out.println("A-a"); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void b() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("A-b");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        a();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void a() { System.out.println("B-a"); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("B-b");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super.b();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] s) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A a = new B();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        a.b();</t>
+  </si>
+  <si>
+    <t>B-b, A-b, A-a</t>
+  </si>
+  <si>
+    <t>B-b, A-b, B-a</t>
+  </si>
+  <si>
+    <t>A-b, A-b, A-a</t>
+  </si>
+  <si>
+    <t>class Employee {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int age;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void Employee(String newName, int newAge) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        name = newName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        age = newAge;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Employee e = new Employee("Kate", 18);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(e.name);</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>class Monster { }</t>
+  </si>
+  <si>
+    <t>class Dragon extends Monster {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void say() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("I'm a dragon");</t>
+  </si>
+  <si>
+    <t>class Orc extends Monster {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("I'm an orc");</t>
+  </si>
+  <si>
+    <t>public class CastingExample {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Monster monster1 = new Dragon();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Monster monster2 = new Orc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ( (Orc)monster1 ).say();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ( (Dragon)monster2 ).say();</t>
+  </si>
+  <si>
+    <t>I'm a dragon I'm an orc</t>
+  </si>
+  <si>
+    <t>I'm an orc I'm a dragon</t>
+  </si>
+  <si>
+    <t>class Base {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String name = "Base";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String getName() { return name; }</t>
+  </si>
+  <si>
+    <t>public class Sub extends Base {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String name = "Sub";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Sub s = new Sub();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Base b = s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(s.name + " " + b.name);</t>
+  </si>
+  <si>
+    <t>Base Sub</t>
+  </si>
+  <si>
+    <t>Sub Base</t>
+  </si>
+  <si>
+    <t>Base Base</t>
+  </si>
+  <si>
+    <t>Sub Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A a = new A();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        a.met(10, 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void met(int i, String s) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Yo man!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void met(int a, int b) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Yo!");</t>
+  </si>
+  <si>
+    <t>Yo man!</t>
+  </si>
+  <si>
+    <t>Yo!</t>
+  </si>
+  <si>
+    <t>public class MyOuter {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private int x = 7;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class MyInner {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public void seeOuter() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("Outer x is " + x);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Mylnner mylnner = new MyOuter().new Mylnner();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mylnner.seeOuter();</t>
+  </si>
+  <si>
+    <t>Outer x is</t>
+  </si>
+  <si>
+    <t>Outer x is 7</t>
+  </si>
+  <si>
+    <t>Outer x is 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">        System.out.println("Question 8 of 37: What will be the result of the following code:");</t>
   </si>
   <si>
-    <t xml:space="preserve">        String varWithSpaces = " AB CB ";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        System.out.print(":");</t>
-  </si>
-  <si>
     <t xml:space="preserve">        System.out.print(varWithSpaces.trim());</t>
   </si>
   <si>
-    <t xml:space="preserve">        System.out.println("");</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">        System.out.println("Question 9 of 37: What will be the result of the following code:");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        String letters = "ABCAB";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        System.out.println(letters.startsWith("Ab"));</t>
   </si>
   <si>
     <t xml:space="preserve">        System.out.println("Question 10 of 37: What will be the result of the following code?");</t>
@@ -1864,15 +2864,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1891,17 +2897,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Wingdings 2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1918,6 +2925,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -1947,59 +2955,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2008,17 +2963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2031,16 +2977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2062,6 +3008,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2070,8 +3054,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2085,7 +3085,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,13 +3161,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,7 +3209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,31 +3227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,13 +3239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,7 +3269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,19 +3287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,7 +3305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2291,43 +3329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2338,6 +3346,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2366,41 +3398,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2438,16 +3435,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2459,172 +3467,178 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2946,14 +3960,14 @@
   <sheetPr/>
   <dimension ref="A1:I516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R501" sqref="R501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +3993,7 @@
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2990,7 +4004,7 @@
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3011,7 +4025,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3087,7 +4101,7 @@
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3113,7 +4127,7 @@
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3149,7 +4163,7 @@
       </c>
     </row>
     <row r="46" customFormat="1" spans="3:3">
-      <c r="C46" s="11">
+      <c r="C46" s="18">
         <v>6</v>
       </c>
     </row>
@@ -3180,7 +4194,7 @@
       </c>
     </row>
     <row r="53" customFormat="1" spans="3:3">
-      <c r="C53" s="11">
+      <c r="C53" s="18">
         <v>15</v>
       </c>
     </row>
@@ -3196,7 +4210,7 @@
       </c>
     </row>
     <row r="57" customFormat="1" spans="3:3">
-      <c r="C57" s="11">
+      <c r="C57" s="18">
         <v>132</v>
       </c>
     </row>
@@ -3232,7 +4246,7 @@
       </c>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="13">
+      <c r="C65" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3247,7 +4261,7 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:2">
-      <c r="B68" s="14"/>
+      <c r="B68" s="20"/>
     </row>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" t="s">
@@ -3270,12 +4284,12 @@
       </c>
     </row>
     <row r="73" customFormat="1" spans="3:3">
-      <c r="C73" s="15" t="b">
+      <c r="C73" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="3:3">
-      <c r="C74" s="8" t="b">
+      <c r="C74" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3285,7 +4299,7 @@
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:2">
-      <c r="B76" s="14"/>
+      <c r="B76" s="20"/>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
@@ -3293,7 +4307,7 @@
       </c>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3318,7 +4332,7 @@
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:2">
-      <c r="B83" s="16"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
@@ -3326,12 +4340,12 @@
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3346,7 +4360,7 @@
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:2">
-      <c r="B89" s="16"/>
+      <c r="B89" s="22"/>
     </row>
     <row r="90" customFormat="1" spans="1:1">
       <c r="A90" t="s">
@@ -3374,7 +4388,7 @@
       </c>
     </row>
     <row r="95" customFormat="1" spans="3:3">
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3390,7 +4404,7 @@
       </c>
     </row>
     <row r="99" customFormat="1" spans="3:3">
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3411,12 +4425,12 @@
     </row>
     <row r="103" s="1" customFormat="1"/>
     <row r="104" customFormat="1" spans="1:1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="3:3">
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3467,7 +4481,7 @@
       </c>
     </row>
     <row r="116" customFormat="1" spans="3:3">
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3483,7 +4497,7 @@
       </c>
     </row>
     <row r="120" customFormat="1" spans="3:3">
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="23" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3534,7 +4548,7 @@
       </c>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3615,7 +4629,7 @@
       </c>
     </row>
     <row r="148" customFormat="1" spans="3:3">
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3696,32 +4710,32 @@
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="3:4">
-      <c r="C170" s="11">
+      <c r="C170" s="18">
         <v>112</v>
       </c>
       <c r="D170" t="s">
@@ -3755,7 +4769,7 @@
       </c>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="11" t="b">
+      <c r="C177" s="18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3765,7 +4779,7 @@
       </c>
     </row>
     <row r="179" s="1" customFormat="1" spans="2:2">
-      <c r="B179" s="14"/>
+      <c r="B179" s="20"/>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
@@ -3793,22 +4807,22 @@
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3864,7 +4878,7 @@
       </c>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="11">
+      <c r="C200" s="18">
         <v>222</v>
       </c>
     </row>
@@ -3936,7 +4950,7 @@
       </c>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4002,7 +5016,7 @@
       </c>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="11" t="s">
+      <c r="C230" s="18" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4053,7 +5067,7 @@
       </c>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="11">
+      <c r="C241" s="18">
         <v>230</v>
       </c>
     </row>
@@ -4160,7 +5174,7 @@
       </c>
     </row>
     <row r="264" customFormat="1" spans="3:3">
-      <c r="C264" s="17">
+      <c r="C264" s="23">
         <v>11</v>
       </c>
     </row>
@@ -4218,7 +5232,7 @@
     </row>
     <row r="276" customFormat="1" spans="2:3">
       <c r="B276" s="12"/>
-      <c r="C276" s="11">
+      <c r="C276" s="18">
         <v>36</v>
       </c>
     </row>
@@ -4302,7 +5316,7 @@
       </c>
     </row>
     <row r="293" customFormat="1" spans="3:3">
-      <c r="C293" s="11" t="s">
+      <c r="C293" s="18" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4348,7 +5362,7 @@
       </c>
     </row>
     <row r="303" customFormat="1" spans="3:3">
-      <c r="C303" s="11">
+      <c r="C303" s="18">
         <v>2</v>
       </c>
     </row>
@@ -4414,7 +5428,7 @@
       </c>
     </row>
     <row r="317" customFormat="1" spans="3:3">
-      <c r="C317" s="11" t="s">
+      <c r="C317" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4440,7 +5454,7 @@
       </c>
     </row>
     <row r="323" spans="3:4">
-      <c r="C323" s="11">
+      <c r="C323" s="18">
         <v>7</v>
       </c>
       <c r="D323" t="s">
@@ -4474,7 +5488,7 @@
       </c>
     </row>
     <row r="330" customFormat="1" spans="3:3">
-      <c r="C330" s="11" t="s">
+      <c r="C330" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4495,7 +5509,7 @@
       </c>
     </row>
     <row r="335" spans="3:3">
-      <c r="C335" s="11" t="s">
+      <c r="C335" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4520,7 +5534,7 @@
       </c>
     </row>
     <row r="340" s="1" customFormat="1"/>
-    <row r="341" s="10" customFormat="1" spans="1:1">
+    <row r="341" s="17" customFormat="1" spans="1:1">
       <c r="A341" t="s">
         <v>231</v>
       </c>
@@ -4536,7 +5550,7 @@
       </c>
     </row>
     <row r="344" customFormat="1" spans="3:3">
-      <c r="C344" s="11" t="s">
+      <c r="C344" s="18" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4546,205 +5560,205 @@
       </c>
     </row>
     <row r="346" s="1" customFormat="1"/>
-    <row r="347" s="10" customFormat="1" spans="1:1">
+    <row r="347" s="17" customFormat="1" spans="1:1">
       <c r="A347" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="1" spans="2:2">
-      <c r="B348" s="19" t="s">
+    <row r="348" s="17" customFormat="1" spans="2:2">
+      <c r="B348" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="349" s="10" customFormat="1" spans="2:2">
-      <c r="B349" s="19" t="s">
+    <row r="349" s="17" customFormat="1" spans="2:2">
+      <c r="B349" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="350" s="10" customFormat="1" spans="2:2">
-      <c r="B350" s="19" t="s">
+    <row r="350" s="17" customFormat="1" spans="2:2">
+      <c r="B350" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="351" s="10" customFormat="1" spans="2:2">
+    <row r="351" s="17" customFormat="1" spans="2:2">
       <c r="B351" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="352" s="10" customFormat="1" spans="2:2">
+    <row r="352" s="17" customFormat="1" spans="2:2">
       <c r="B352" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="353" s="10" customFormat="1" spans="2:2">
-      <c r="B353" s="19" t="s">
+    <row r="353" s="17" customFormat="1" spans="2:2">
+      <c r="B353" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="354" s="10" customFormat="1" spans="2:2">
+    <row r="354" s="17" customFormat="1" spans="2:2">
       <c r="B354" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="355" s="10" customFormat="1" spans="3:3">
-      <c r="C355" s="11">
+    <row r="355" s="17" customFormat="1" spans="3:3">
+      <c r="C355" s="18">
         <v>987</v>
       </c>
     </row>
-    <row r="356" s="10" customFormat="1" spans="3:3">
-      <c r="C356" s="10">
+    <row r="356" s="17" customFormat="1" spans="3:3">
+      <c r="C356" s="17">
         <v>980</v>
       </c>
     </row>
-    <row r="357" s="10" customFormat="1" spans="3:3">
-      <c r="C357" s="10">
+    <row r="357" s="17" customFormat="1" spans="3:3">
+      <c r="C357" s="17">
         <v>789</v>
       </c>
     </row>
-    <row r="358" s="10" customFormat="1" spans="3:3">
-      <c r="C358" s="10">
+    <row r="358" s="17" customFormat="1" spans="3:3">
+      <c r="C358" s="17">
         <v>988</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1"/>
-    <row r="360" s="10" customFormat="1" spans="1:1">
+    <row r="360" s="17" customFormat="1" spans="1:1">
       <c r="A360" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="361" s="10" customFormat="1" spans="2:2">
-      <c r="B361" s="19" t="s">
+    <row r="361" s="17" customFormat="1" spans="2:2">
+      <c r="B361" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="362" s="10" customFormat="1" spans="2:2">
-      <c r="B362" s="20" t="s">
+    <row r="362" s="17" customFormat="1" spans="2:2">
+      <c r="B362" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="363" s="10" customFormat="1" spans="2:2">
-      <c r="B363" s="20" t="s">
+    <row r="363" s="17" customFormat="1" spans="2:2">
+      <c r="B363" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="364" s="10" customFormat="1" spans="2:2">
-      <c r="B364" s="20" t="s">
+    <row r="364" s="17" customFormat="1" spans="2:2">
+      <c r="B364" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="365" s="10" customFormat="1" spans="2:2">
-      <c r="B365" s="20" t="s">
+    <row r="365" s="17" customFormat="1" spans="2:2">
+      <c r="B365" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="366" s="10" customFormat="1" spans="2:2">
-      <c r="B366" s="21" t="s">
+    <row r="366" s="17" customFormat="1" spans="2:2">
+      <c r="B366" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="367" s="10" customFormat="1" spans="2:2">
-      <c r="B367" s="21" t="s">
+    <row r="367" s="17" customFormat="1" spans="2:2">
+      <c r="B367" s="26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="368" s="10" customFormat="1" spans="2:2">
-      <c r="B368" s="21" t="s">
+    <row r="368" s="17" customFormat="1" spans="2:2">
+      <c r="B368" s="26" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="369" s="10" customFormat="1" spans="2:2">
-      <c r="B369" s="21" t="s">
+    <row r="369" s="17" customFormat="1" spans="2:2">
+      <c r="B369" s="26" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="370" s="10" customFormat="1" spans="2:2">
-      <c r="B370" s="21" t="s">
+    <row r="370" s="17" customFormat="1" spans="2:2">
+      <c r="B370" s="26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="371" s="10" customFormat="1" spans="2:3">
-      <c r="B371" s="19"/>
-      <c r="C371" s="11">
+    <row r="371" s="17" customFormat="1" spans="2:3">
+      <c r="B371" s="24"/>
+      <c r="C371" s="18">
         <v>15</v>
       </c>
     </row>
-    <row r="372" s="10" customFormat="1" spans="2:3">
-      <c r="B372" s="19"/>
-      <c r="C372" s="10">
+    <row r="372" s="17" customFormat="1" spans="2:3">
+      <c r="B372" s="24"/>
+      <c r="C372" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="373" s="10" customFormat="1" spans="2:3">
-      <c r="B373" s="19"/>
-      <c r="C373" s="10" t="s">
+    <row r="373" s="17" customFormat="1" spans="2:3">
+      <c r="B373" s="24"/>
+      <c r="C373" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="374" s="10" customFormat="1" spans="3:3">
-      <c r="C374" s="10">
+    <row r="374" s="17" customFormat="1" spans="3:3">
+      <c r="C374" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1"/>
-    <row r="376" s="10" customFormat="1" spans="1:2">
+    <row r="376" s="17" customFormat="1" spans="1:2">
       <c r="A376" t="s">
         <v>89</v>
       </c>
       <c r="B376"/>
     </row>
-    <row r="377" s="10" customFormat="1" spans="1:2">
+    <row r="377" s="17" customFormat="1" spans="1:2">
       <c r="A377"/>
       <c r="B377" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="378" s="10" customFormat="1" spans="2:2">
+    <row r="378" s="17" customFormat="1" spans="2:2">
       <c r="B378" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="379" s="10" customFormat="1" spans="2:2">
+    <row r="379" s="17" customFormat="1" spans="2:2">
       <c r="B379" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="380" s="10" customFormat="1" spans="2:2">
+    <row r="380" s="17" customFormat="1" spans="2:2">
       <c r="B380" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="381" s="10" customFormat="1" spans="2:2">
+    <row r="381" s="17" customFormat="1" spans="2:2">
       <c r="B381" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="382" s="10" customFormat="1" spans="2:2">
+    <row r="382" s="17" customFormat="1" spans="2:2">
       <c r="B382" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="383" s="10" customFormat="1" spans="2:2">
-      <c r="B383" s="19" t="s">
+    <row r="383" s="17" customFormat="1" spans="2:2">
+      <c r="B383" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="384" s="10" customFormat="1" spans="3:3">
-      <c r="C384" s="11" t="s">
+    <row r="384" s="17" customFormat="1" spans="3:3">
+      <c r="C384" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="385" s="10" customFormat="1" spans="3:3">
-      <c r="C385" s="10" t="s">
+    <row r="385" s="17" customFormat="1" spans="3:3">
+      <c r="C385" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="386" s="10" customFormat="1" spans="3:3">
-      <c r="C386" s="10" t="s">
+    <row r="386" s="17" customFormat="1" spans="3:3">
+      <c r="C386" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="387" s="10" customFormat="1" spans="3:3">
-      <c r="C387" s="10" t="s">
+    <row r="387" s="17" customFormat="1" spans="3:3">
+      <c r="C387" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4754,73 +5768,73 @@
         <v>89</v>
       </c>
     </row>
-    <row r="390" s="10" customFormat="1" spans="2:2">
-      <c r="B390" s="19" t="s">
+    <row r="390" s="17" customFormat="1" spans="2:2">
+      <c r="B390" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="391" s="10" customFormat="1" spans="2:2">
-      <c r="B391" s="19" t="s">
+    <row r="391" s="17" customFormat="1" spans="2:2">
+      <c r="B391" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="392" s="10" customFormat="1" spans="2:2">
-      <c r="B392" s="19" t="s">
+    <row r="392" s="17" customFormat="1" spans="2:2">
+      <c r="B392" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="393" s="10" customFormat="1" spans="2:2">
-      <c r="B393" s="19" t="s">
+    <row r="393" s="17" customFormat="1" spans="2:2">
+      <c r="B393" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="394" s="10" customFormat="1" spans="2:2">
-      <c r="B394" s="19" t="s">
+    <row r="394" s="17" customFormat="1" spans="2:2">
+      <c r="B394" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="395" s="10" customFormat="1" spans="2:2">
-      <c r="B395" s="19" t="s">
+    <row r="395" s="17" customFormat="1" spans="2:2">
+      <c r="B395" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="396" s="10" customFormat="1" spans="2:2">
-      <c r="B396" s="19" t="s">
+    <row r="396" s="17" customFormat="1" spans="2:2">
+      <c r="B396" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="397" s="10" customFormat="1" spans="2:2">
-      <c r="B397" s="19" t="s">
+    <row r="397" s="17" customFormat="1" spans="2:2">
+      <c r="B397" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="398" s="10" customFormat="1" spans="2:2">
-      <c r="B398" s="19" t="s">
+    <row r="398" s="17" customFormat="1" spans="2:2">
+      <c r="B398" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="399" s="10" customFormat="1" spans="2:2">
-      <c r="B399" s="19" t="s">
+    <row r="399" s="17" customFormat="1" spans="2:2">
+      <c r="B399" s="24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="400" s="10" customFormat="1" spans="3:3">
-      <c r="C400" s="10" t="s">
+    <row r="400" s="17" customFormat="1" spans="3:3">
+      <c r="C400" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="401" s="10" customFormat="1" spans="3:3">
-      <c r="C401" s="10">
+    <row r="401" s="17" customFormat="1" spans="3:3">
+      <c r="C401" s="17">
         <v>1.2</v>
       </c>
     </row>
-    <row r="402" s="10" customFormat="1" spans="3:3">
-      <c r="C402" s="10">
+    <row r="402" s="17" customFormat="1" spans="3:3">
+      <c r="C402" s="17">
         <v>5.6</v>
       </c>
     </row>
-    <row r="403" s="10" customFormat="1" spans="3:3">
-      <c r="C403" s="17">
+    <row r="403" s="17" customFormat="1" spans="3:3">
+      <c r="C403" s="23">
         <v>1.6</v>
       </c>
     </row>
@@ -4856,52 +5870,52 @@
       </c>
     </row>
     <row r="411" spans="2:2">
-      <c r="B411" s="22" t="s">
+      <c r="B411" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="412" spans="2:2">
-      <c r="B412" s="22" t="s">
+      <c r="B412" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="22" t="s">
+      <c r="B413" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="22" t="s">
+      <c r="B414" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="22" t="s">
+      <c r="B415" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="416" spans="2:2">
-      <c r="B416" s="18" t="s">
+      <c r="B416" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="18" t="s">
+      <c r="B417" s="13" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="18" t="s">
+      <c r="B418" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="419" spans="2:2">
-      <c r="B419" s="23" t="s">
+      <c r="B419" s="27" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="420" spans="3:4">
-      <c r="C420" s="11" t="s">
+      <c r="C420" s="18" t="s">
         <v>256</v>
       </c>
       <c r="D420" t="s">
@@ -4935,7 +5949,7 @@
       </c>
     </row>
     <row r="427" customFormat="1" spans="3:3">
-      <c r="C427" s="24" t="s">
+      <c r="C427" s="28" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4982,7 +5996,7 @@
       </c>
     </row>
     <row r="436" customFormat="1" spans="3:3">
-      <c r="C436" s="11">
+      <c r="C436" s="18">
         <v>518</v>
       </c>
     </row>
@@ -4993,7 +6007,7 @@
       </c>
     </row>
     <row r="439" customFormat="1" spans="3:3">
-      <c r="C439" s="11" t="s">
+      <c r="C439" s="18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5019,7 +6033,7 @@
       </c>
     </row>
     <row r="445" customFormat="1" spans="3:3">
-      <c r="C445" s="11">
+      <c r="C445" s="18">
         <v>8</v>
       </c>
     </row>
@@ -5050,12 +6064,12 @@
       </c>
     </row>
     <row r="452" customFormat="1" spans="2:2">
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="453" customFormat="1" spans="2:2">
-      <c r="B453" s="25" t="s">
+      <c r="B453" s="29" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5066,7 +6080,7 @@
     </row>
     <row r="455" customFormat="1" spans="2:3">
       <c r="B455" s="12"/>
-      <c r="C455" s="11" t="s">
+      <c r="C455" s="18" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5105,7 +6119,7 @@
       </c>
     </row>
     <row r="463" spans="3:3">
-      <c r="C463" s="11" t="s">
+      <c r="C463" s="18" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5131,31 +6145,31 @@
       </c>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="4" t="s">
+      <c r="B469" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C469" s="11" t="s">
+      <c r="C469" s="18" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="4" t="s">
+      <c r="B470" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C470" s="11" t="s">
+      <c r="C470" s="18" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="4" t="s">
+      <c r="B471" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C471" s="11" t="s">
+      <c r="C471" s="18" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="6" t="s">
+      <c r="B472" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C472" t="s">
@@ -5169,23 +6183,23 @@
       </c>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="4" t="s">
+      <c r="B475" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C475" s="26" t="s">
+      <c r="C475" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="4" t="s">
+      <c r="B476" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C476" s="26" t="s">
+      <c r="C476" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="6" t="s">
+      <c r="B477" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C477" s="12" t="s">
@@ -5193,7 +6207,7 @@
       </c>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="6" t="s">
+      <c r="B478" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C478" s="12" t="s">
@@ -5207,7 +6221,7 @@
       </c>
     </row>
     <row r="481" customFormat="1" spans="2:3">
-      <c r="B481" s="4" t="s">
+      <c r="B481" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C481" s="12" t="s">
@@ -5215,15 +6229,15 @@
       </c>
     </row>
     <row r="482" customFormat="1" spans="2:3">
-      <c r="B482" s="4" t="s">
+      <c r="B482" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C482" s="27" t="s">
+      <c r="C482" s="31" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="483" customFormat="1" spans="2:3">
-      <c r="B483" s="6" t="s">
+      <c r="B483" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C483" s="12" t="s">
@@ -5231,7 +6245,7 @@
       </c>
     </row>
     <row r="484" customFormat="1" spans="2:3">
-      <c r="B484" s="6" t="s">
+      <c r="B484" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C484" s="12" t="s">
@@ -5239,7 +6253,7 @@
       </c>
     </row>
     <row r="485" customFormat="1" spans="2:3">
-      <c r="B485" s="6" t="s">
+      <c r="B485" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C485" s="12" t="s">
@@ -5247,7 +6261,7 @@
       </c>
     </row>
     <row r="486" customFormat="1" spans="2:3">
-      <c r="B486" s="6" t="s">
+      <c r="B486" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C486" s="12" t="s">
@@ -5261,23 +6275,23 @@
       </c>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="4" t="s">
+      <c r="B489" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C489" s="11" t="s">
+      <c r="C489" s="18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="4" t="s">
+      <c r="B490" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C490" s="11" t="s">
+      <c r="C490" s="18" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="6" t="s">
+      <c r="B491" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C491" t="s">
@@ -5285,7 +6299,7 @@
       </c>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="6" t="s">
+      <c r="B492" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C492" t="s">
@@ -5297,29 +6311,29 @@
       <c r="A494" t="s">
         <v>327</v>
       </c>
-      <c r="B494" s="6"/>
+      <c r="B494" s="7"/>
     </row>
     <row r="495" customFormat="1" spans="2:3">
-      <c r="B495" s="6"/>
+      <c r="B495" s="7"/>
       <c r="C495" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="496" customFormat="1" spans="2:3">
-      <c r="B496" s="6"/>
+      <c r="B496" s="7"/>
       <c r="C496" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="497" customFormat="1" spans="2:3">
-      <c r="B497" s="6"/>
+      <c r="B497" s="7"/>
       <c r="C497" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="498" customFormat="1" spans="2:3">
-      <c r="B498" s="6"/>
-      <c r="C498" s="24" t="s">
+      <c r="B498" s="7"/>
+      <c r="C498" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5330,32 +6344,32 @@
       </c>
     </row>
     <row r="501" spans="2:2">
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="502" spans="2:2">
-      <c r="B502" s="3" t="s">
+      <c r="B502" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" s="3" t="s">
+      <c r="B503" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="504" spans="2:2">
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="505" spans="2:2">
-      <c r="B505" s="3" t="s">
+      <c r="B505" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="506" spans="3:3">
-      <c r="C506" s="11" t="s">
+      <c r="C506" s="18" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5410,16 +6424,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C534"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C538" sqref="C538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5430,59 +6444,59 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5568,17 +6582,17 @@
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5699,275 +6713,2330 @@
       </c>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1"/>
-    <row r="60" spans="1:1">
+    <row r="60" customFormat="1" spans="1:1">
       <c r="A60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="2:2">
+      <c r="B61" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="62" customFormat="1" spans="2:2">
+      <c r="B62" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="63" customFormat="1" spans="2:2">
+      <c r="B63" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="2:2">
+      <c r="B64" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:2">
+      <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="2:2">
+      <c r="B66" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="2:2">
+      <c r="B67" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="2:2">
+      <c r="B68" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="2:2">
+      <c r="B69" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="2:2">
+      <c r="B70" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="8" t="s">
+    <row r="71" customFormat="1" spans="2:2">
+      <c r="B71" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:2">
+      <c r="B72" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:2">
+      <c r="B73" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="3:3">
+      <c r="C74" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="3:3">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
+    <row r="76" customFormat="1" spans="3:3">
+      <c r="C76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="3:3">
+      <c r="C77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="3:3">
       <c r="C78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" customFormat="1" spans="1:1">
+      <c r="A80" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+    <row r="81" customFormat="1" spans="2:2">
+      <c r="B81" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="82" customFormat="1" spans="2:2">
+      <c r="B82" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="83" customFormat="1" spans="2:2">
+      <c r="B83" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>262</v>
+    <row r="84" customFormat="1" spans="2:2">
+      <c r="B84" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="2:2">
+      <c r="B85" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="2:2">
+      <c r="B86" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="2:2">
+      <c r="B87" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="2:2">
+      <c r="B88" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="2:2">
+      <c r="B89" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="2:2">
+      <c r="B90" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="3:3">
+      <c r="C91" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="3:3">
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="3:3">
+      <c r="C93" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="3:3">
+      <c r="C94" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
-      <c r="C98" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
-      <c r="C100" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="2" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1"/>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C107" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="2" t="s">
+      <c r="C143" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C108" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="2" t="s">
+      <c r="C144" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C109" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="2" t="s">
+      <c r="C145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C110" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="2" t="s">
+      <c r="C146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C111" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1"/>
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1"/>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1"/>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1"/>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1"/>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1"/>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="224" s="1" customFormat="1"/>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="231" s="1" customFormat="1"/>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="1"/>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1"/>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="273" s="1" customFormat="1"/>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="279" s="1" customFormat="1"/>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1"/>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1"/>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1"/>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1"/>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="336" s="1" customFormat="1"/>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>387</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="357" s="1" customFormat="1"/>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="373" s="1" customFormat="1"/>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="B385" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="386" s="1" customFormat="1"/>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="394" s="1" customFormat="1"/>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" s="1" customFormat="1"/>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="418" s="1" customFormat="1"/>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="441" s="1" customFormat="1"/>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="13" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="12" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="481" s="1" customFormat="1"/>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="499" s="1" customFormat="1"/>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="516" s="1" customFormat="1"/>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="534" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6051,67 +9120,67 @@
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>413</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>416</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>418</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>419</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>418</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>422</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>423</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="5:5">
@@ -6121,12 +9190,12 @@
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>424</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>425</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="5:5">
@@ -6181,7 +9250,7 @@
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>426</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="5:5">
@@ -6226,22 +9295,22 @@
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>427</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>428</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>429</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>430</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="5:5">
@@ -6256,17 +9325,17 @@
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>431</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>432</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>433</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="5:5">
